--- a/biology/Histoire de la zoologie et de la botanique/Louis_Diamond/Louis_Diamond.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Diamond/Louis_Diamond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Klein Diamond, né le 11 mai 1902 et mort le 14 juin 1999, est un pédiatre et hématologue américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Klein Diamond né le 11 mai 1902 en Ukraine, dans l'Empire russe, est le fils d'Eleazor Diamond et de Lena Klein Diamond[1].
-Après avoir émigré aux États-Unis avec ses parents à l'âge de deux ans, il grandit à Manhattan[1]. Il entre à l'Université Harvard en 1919[1]. Il s'intéresse d'abord à la chimie, il passe les étés en travaillant comme moniteur de camp en Nouvelle-Angleterre, cela contribue à susciter un intérêt dans le domaine de la pédiatrie[1].
-Il meurt le 14 juin 1999[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Klein Diamond né le 11 mai 1902 en Ukraine, dans l'Empire russe, est le fils d'Eleazor Diamond et de Lena Klein Diamond.
+Après avoir émigré aux États-Unis avec ses parents à l'âge de deux ans, il grandit à Manhattan. Il entre à l'Université Harvard en 1919. Il s'intéresse d'abord à la chimie, il passe les étés en travaillant comme moniteur de camp en Nouvelle-Angleterre, cela contribue à susciter un intérêt dans le domaine de la pédiatrie.
+Il meurt le 14 juin 1999.
 </t>
         </is>
       </c>
